--- a/meta/telegrams/RequestHeader.xlsx
+++ b/meta/telegrams/RequestHeader.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/objects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0810D378-2431-0B4F-8734-87131F5815B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A86856D-6D0A-0743-AC1F-3FE586E72460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="5940" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13180" yWindow="6240" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>クラス名</t>
   </si>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>総称型</t>
     <rPh sb="0" eb="2">
       <t>ソウショウガタ</t>
@@ -200,18 +196,6 @@
     <t>RequestHeader</t>
   </si>
   <si>
-    <t>token</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>通信に関するメタ情報</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>認証キー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>バリューオブジェクト定義書 設定シート</t>
     <rPh sb="14" eb="16">
       <t>セッテイ</t>
@@ -296,14 +280,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>LocaleInfo</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>locale</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>必須項目</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒッス </t>
@@ -315,30 +291,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ロケール情報</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>charset</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>文字情報（常にUTF-8）</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">モジジョウホウ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ツネニ </t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -379,8 +331,12 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>"UTF-8"</t>
-    <phoneticPr fontId="3"/>
+    <t>その他</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nullable</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>配置ディレクトリ</t>
@@ -402,15 +358,72 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Nullable</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>その他</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>new LocaleInfo()</t>
+    <t>通信に関するメタ情報を表す型です</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">アラワス </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>通信に関するメタ情報を表す型です</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"ja"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tz</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>時間帯</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"JPY"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>通貨</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"Asia/Tokyo"</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -470,7 +483,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,12 +510,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
@@ -520,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -746,6 +753,19 @@
         <color indexed="8"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -771,47 +791,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1107,53 +1086,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1199,90 +1137,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,51 +1231,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1354,9 +1251,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1770,7 +1699,7 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1707,7 @@
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="34" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="34" customWidth="1"/>
     <col min="8" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
@@ -1791,7 +1720,14 @@
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1799,11 +1735,37 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
@@ -1814,14 +1776,14 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
@@ -1829,19 +1791,19 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="8"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
@@ -1849,19 +1811,19 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="104"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
+      <c r="F7" s="87"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
@@ -1869,60 +1831,44 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="104"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
+      <c r="F8" s="87"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
     </row>
     <row r="9" spans="1:15" s="34" customFormat="1">
-      <c r="A9" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
+      <c r="A9" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="34" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:15" s="34" customFormat="1">
-      <c r="A10" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="105"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
+      <c r="A10" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="91"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
@@ -1930,19 +1876,19 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
@@ -1950,102 +1896,100 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
     </row>
     <row r="13" spans="1:15" s="34" customFormat="1">
-      <c r="A13" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
     </row>
     <row r="14" spans="1:15" s="34" customFormat="1">
-      <c r="A14" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
-        <v>42</v>
+      <c r="A14" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
     </row>
     <row r="15" spans="1:15" s="34" customFormat="1">
-      <c r="A15" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57" t="s">
-        <v>42</v>
-      </c>
+      <c r="A15" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
     </row>
     <row r="16" spans="1:15" s="34" customFormat="1">
-      <c r="A16" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="57" t="s">
-        <v>42</v>
+      <c r="A16" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="74"/>
+      <c r="C16" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="12"/>
@@ -2055,14 +1999,14 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="98"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="81"/>
     </row>
     <row r="18" spans="1:17" s="34" customFormat="1">
       <c r="A18" s="31" t="s">
@@ -2073,14 +2017,14 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
     </row>
     <row r="19" spans="1:17" s="34" customFormat="1">
       <c r="A19" s="35" t="s">
@@ -2091,53 +2035,53 @@
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
     </row>
     <row r="20" spans="1:17" s="34" customFormat="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
     </row>
     <row r="21" spans="1:17" s="34" customFormat="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
     </row>
     <row r="22" spans="1:17" s="34" customFormat="1">
       <c r="A22"/>
@@ -2147,104 +2091,104 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
     </row>
     <row r="23" spans="1:17" s="34" customFormat="1">
       <c r="A23" s="31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
     </row>
     <row r="24" spans="1:17" s="34" customFormat="1">
-      <c r="A24" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
+      <c r="A24" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="36"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
     </row>
     <row r="25" spans="1:17" s="34" customFormat="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
     </row>
     <row r="26" spans="1:17" s="34" customFormat="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
     </row>
     <row r="27" spans="1:17" s="34" customFormat="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
     </row>
     <row r="28" spans="1:17" s="34" customFormat="1">
       <c r="A28"/>
@@ -2266,7 +2210,7 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="56"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -2279,71 +2223,71 @@
       <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="F30" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="87" t="s">
+      <c r="I30" s="100"/>
+      <c r="J30" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="87" t="s">
+      <c r="K30" s="100"/>
+      <c r="L30" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="88"/>
-      <c r="L30" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="83" t="s">
+      <c r="M30" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="83"/>
+      <c r="N30" s="94"/>
       <c r="O30" s="15"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="92"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="101"/>
       <c r="H31" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="J31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="42" t="s">
+      <c r="K31" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="L31" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
       <c r="O31" s="17"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="14"/>
@@ -2353,24 +2297,28 @@
         <v>1</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="20" t="s">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="77"/>
+      <c r="H32" s="79">
+        <v>2</v>
+      </c>
+      <c r="I32" s="79">
+        <v>2</v>
+      </c>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79" t="s">
+        <v>60</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
@@ -2383,26 +2331,28 @@
         <v>2</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="94"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="79"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="77"/>
+      <c r="H33" s="79">
+        <v>3</v>
+      </c>
+      <c r="I33" s="79">
+        <v>3</v>
+      </c>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79" t="s">
+        <v>62</v>
       </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
@@ -2414,26 +2364,28 @@
         <v>3</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="94"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="79"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="77"/>
+      <c r="H34" s="79">
+        <v>3</v>
+      </c>
+      <c r="I34" s="79">
+        <v>3</v>
+      </c>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79" t="s">
+        <v>65</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
@@ -2441,19 +2393,31 @@
       <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="A35" s="18">
+        <v>4</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="79"/>
+      <c r="E35" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="77"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79" t="s">
+        <v>69</v>
+      </c>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="22"/>
@@ -2462,17 +2426,17 @@
     <row r="36" spans="1:17">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="20"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="22"/>
@@ -2483,9 +2447,9 @@
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="74"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="94"/>
+      <c r="G37" s="79"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
@@ -2502,9 +2466,9 @@
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="74"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="95"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
@@ -2521,9 +2485,9 @@
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="74"/>
+      <c r="E39" s="71"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="94"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
@@ -2540,9 +2504,9 @@
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="74"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="30"/>
-      <c r="G40" s="95"/>
+      <c r="G40" s="78"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
@@ -2559,9 +2523,9 @@
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="74"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="94"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -2578,9 +2542,9 @@
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="74"/>
+      <c r="E42" s="71"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="94"/>
+      <c r="G42" s="79"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -2597,9 +2561,9 @@
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="74"/>
+      <c r="E43" s="71"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="94"/>
+      <c r="G43" s="79"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -2616,9 +2580,9 @@
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="74"/>
+      <c r="E44" s="71"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="94"/>
+      <c r="G44" s="79"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -2635,9 +2599,9 @@
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="74"/>
+      <c r="E45" s="71"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="94"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -2654,9 +2618,9 @@
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="75"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="96"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
@@ -2700,7 +2664,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E46" xr:uid="{F933F47B-05D2-5E45-ABCD-2D5049C86A28}">
       <formula1>isRequired</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32:G46" xr:uid="{3EABC74D-5BFE-344F-BB7E-101ED4E23D00}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32:G46" xr:uid="{06987D4B-95F2-BD49-BB85-669C3035D1D6}">
       <formula1>others</formula1>
     </dataValidation>
   </dataValidations>
@@ -2720,99 +2684,99 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="256" width="8.83203125" style="48" customWidth="1"/>
-    <col min="257" max="16384" width="10.83203125" style="48"/>
+    <col min="1" max="3" width="8.83203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="256" width="8.83203125" style="45" customWidth="1"/>
+    <col min="257" max="16384" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="44"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47" t="s">
+      <c r="H3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="47"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="49" t="s">
+      <c r="J3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="L3" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="D5" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="53" t="s">
-        <v>39</v>
+      <c r="F5" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="54"/>
+      <c r="B6" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
